--- a/ОсновыПр1920.xlsx
+++ b/ОсновыПр1920.xlsx
@@ -2649,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2817,6 +2817,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -2832,6 +2835,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
@@ -2852,6 +2858,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -2885,6 +2894,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -2921,6 +2933,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -2959,6 +2974,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -2975,6 +2993,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -2990,6 +3011,9 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
@@ -3008,6 +3032,9 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
@@ -3044,6 +3071,9 @@
         <v>1</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
